--- a/log_models.xlsx
+++ b/log_models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mela/Desktop/Kaggle/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83BD271C-8EEF-FA49-A4DD-F22F71BEE241}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0CE38257-BB6D-9A4A-9B36-9B2C13974BC4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{5138DD08-CEE7-3C44-A93B-6FFBF1D4C85B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Model</t>
   </si>
@@ -43,6 +43,30 @@
   </si>
   <si>
     <t>Integreat_name</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Melanie</t>
+  </si>
+  <si>
+    <t>Random Forest for feature selection</t>
+  </si>
+  <si>
+    <t>Linear regression for prediction</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>R^2 0.81</t>
+  </si>
+  <si>
+    <t>none specified</t>
   </si>
 </sst>
 </file>
@@ -95,9 +119,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,41 +443,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4578EC5-AF7A-0C45-96E5-B419E1B27000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
